--- a/data/trans_orig/P33B_R5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R5-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>45782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35584</v>
+        <v>33788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60691</v>
+        <v>59541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06638667206108671</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05159843211682601</v>
+        <v>0.04899394247148874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08800523187412258</v>
+        <v>0.08633833724444513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -762,19 +762,19 @@
         <v>102199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89563</v>
+        <v>88847</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116727</v>
+        <v>116921</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1394787294103144</v>
+        <v>0.1394787294103143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1222331628074288</v>
+        <v>0.1212556252724545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.159306444666793</v>
+        <v>0.1595706116591217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>249</v>
@@ -783,19 +783,19 @@
         <v>147981</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130073</v>
+        <v>130033</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>167210</v>
+        <v>169842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.104039964968379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09144943860120745</v>
+        <v>0.09142118984202156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1175587752304393</v>
+        <v>0.119409533955653</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>643846</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>628937</v>
+        <v>630087</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>654044</v>
+        <v>655840</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9336133279389133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9119947681258773</v>
+        <v>0.913661662755555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9484015678831741</v>
+        <v>0.9510060575285113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1046</v>
@@ -833,19 +833,19 @@
         <v>630523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>615995</v>
+        <v>615801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>643159</v>
+        <v>643875</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8605212705896856</v>
+        <v>0.8605212705896854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8406935553332069</v>
+        <v>0.8404293883408781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8777668371925709</v>
+        <v>0.8787443747275452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1718</v>
@@ -854,19 +854,19 @@
         <v>1274369</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1255140</v>
+        <v>1252508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1292277</v>
+        <v>1292317</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.895960035031621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8824412247695608</v>
+        <v>0.8805904660443471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9085505613987928</v>
+        <v>0.9085788101579784</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>61337</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47617</v>
+        <v>47200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78373</v>
+        <v>78660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05847642840974823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04539652540736665</v>
+        <v>0.04499868089124492</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07471842161877039</v>
+        <v>0.07499152634504991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -979,19 +979,19 @@
         <v>135870</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>119359</v>
+        <v>118976</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>153095</v>
+        <v>152967</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1268823303399242</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1114634507574665</v>
+        <v>0.1111054663111047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1429670937613677</v>
+        <v>0.1428477283203237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>295</v>
@@ -1000,19 +1000,19 @@
         <v>197207</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>172574</v>
+        <v>173602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>220290</v>
+        <v>218602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09303308015455958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08141216694094638</v>
+        <v>0.08189719589883541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1039224903146849</v>
+        <v>0.1031261560855867</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>987580</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>970544</v>
+        <v>970257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1001300</v>
+        <v>1001717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9415235715902519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9252815783812296</v>
+        <v>0.9250084736549501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9546034745926333</v>
+        <v>0.9550013191087551</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1294</v>
@@ -1050,19 +1050,19 @@
         <v>934968</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>917743</v>
+        <v>917871</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>951479</v>
+        <v>951862</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8731176696600759</v>
+        <v>0.873117669660076</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8570329062386323</v>
+        <v>0.8571522716796763</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8885365492425331</v>
+        <v>0.8888945336888954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2185</v>
@@ -1071,19 +1071,19 @@
         <v>1922548</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1899465</v>
+        <v>1901153</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1947181</v>
+        <v>1946153</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9069669198454404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8960775096853152</v>
+        <v>0.8968738439144125</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9185878330590542</v>
+        <v>0.9181028041011641</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>47448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36238</v>
+        <v>34844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62680</v>
+        <v>62017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05915538195932143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04517980816737566</v>
+        <v>0.04344227403691055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07814566358198141</v>
+        <v>0.07731911198955831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -1196,19 +1196,19 @@
         <v>92374</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77947</v>
+        <v>77808</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110767</v>
+        <v>110400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.113902470211044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09611291450636975</v>
+        <v>0.09594176704565283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1365822061761433</v>
+        <v>0.136129283847997</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>175</v>
@@ -1217,19 +1217,19 @@
         <v>139822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117035</v>
+        <v>117591</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162450</v>
+        <v>160920</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08668009910759467</v>
+        <v>0.08668009910759468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07255350380947456</v>
+        <v>0.07289836396050967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1007078704777637</v>
+        <v>0.0997593988150007</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>754638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739406</v>
+        <v>740069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>765848</v>
+        <v>767242</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9408446180406785</v>
+        <v>0.9408446180406784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9218543364180186</v>
+        <v>0.9226808880104413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9548201918326243</v>
+        <v>0.956557725963089</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>920</v>
@@ -1267,19 +1267,19 @@
         <v>718620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>700227</v>
+        <v>700594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733047</v>
+        <v>733186</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8860975297889561</v>
+        <v>0.8860975297889562</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8634177938238572</v>
+        <v>0.8638707161520031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9038870854936305</v>
+        <v>0.9040582329543471</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1545</v>
@@ -1288,19 +1288,19 @@
         <v>1473257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1450629</v>
+        <v>1452159</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1496044</v>
+        <v>1495488</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9133199008924052</v>
+        <v>0.9133199008924054</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8992921295222364</v>
+        <v>0.9002406011849994</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9274464961905254</v>
+        <v>0.9271016360394903</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>83010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67479</v>
+        <v>68156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101866</v>
+        <v>101058</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08384282622834321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06815681834541799</v>
+        <v>0.06883987926394947</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1028880493442596</v>
+        <v>0.1020720265131722</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -1413,19 +1413,19 @@
         <v>143792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>126880</v>
+        <v>126827</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164181</v>
+        <v>163683</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1285791114957472</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1134556814171178</v>
+        <v>0.1134088206181151</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1468104786306248</v>
+        <v>0.1463649546211795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>326</v>
@@ -1434,19 +1434,19 @@
         <v>226802</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202281</v>
+        <v>202882</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>254784</v>
+        <v>254219</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.107571661415483</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0959415511932091</v>
+        <v>0.0962264489540355</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1208432139722917</v>
+        <v>0.1205752560396471</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>907052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>888196</v>
+        <v>889004</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>922583</v>
+        <v>921906</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9161571737716566</v>
+        <v>0.9161571737716568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8971119506557402</v>
+        <v>0.8979279734868281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9318431816545819</v>
+        <v>0.9311601207360507</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1337</v>
@@ -1484,19 +1484,19 @@
         <v>974527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>954138</v>
+        <v>954636</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>991439</v>
+        <v>991492</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8714208885042527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8531895213693745</v>
+        <v>0.8536350453788204</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8865443185828821</v>
+        <v>0.8865911793818848</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2241</v>
@@ -1505,19 +1505,19 @@
         <v>1881579</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1853597</v>
+        <v>1854162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1906100</v>
+        <v>1905499</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.892428338584517</v>
+        <v>0.8924283385845171</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8791567860277084</v>
+        <v>0.8794247439603528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9040584488067909</v>
+        <v>0.9037735510459637</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>237576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>209598</v>
+        <v>209445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>270819</v>
+        <v>268189</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06728886791613733</v>
+        <v>0.06728886791613735</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.059364567372551</v>
+        <v>0.05932125314776258</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07670424878315606</v>
+        <v>0.07595926641736855</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>763</v>
@@ -1630,19 +1630,19 @@
         <v>474236</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>440352</v>
+        <v>441141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>508159</v>
+        <v>508935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1270432282657868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1179660631391724</v>
+        <v>0.1181773772745416</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1361308690695757</v>
+        <v>0.136338579129646</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1045</v>
@@ -1651,19 +1651,19 @@
         <v>711812</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>666690</v>
+        <v>670244</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>756162</v>
+        <v>760570</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0979976729734347</v>
+        <v>0.09799767297343469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0917854513726757</v>
+        <v>0.09227477570672978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1041034884735832</v>
+        <v>0.1047102960569844</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3293117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3259874</v>
+        <v>3262504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3321095</v>
+        <v>3321248</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9327111320838628</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9232957512168443</v>
+        <v>0.9240407335826312</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.940635432627449</v>
+        <v>0.9406787468522375</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4597</v>
@@ -1701,19 +1701,19 @@
         <v>3258637</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3224714</v>
+        <v>3223938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3292521</v>
+        <v>3291732</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.872956771734213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8638691309304242</v>
+        <v>0.8636614208703539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8820339368608274</v>
+        <v>0.8818226227254585</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7689</v>
@@ -1722,19 +1722,19 @@
         <v>6551753</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6507403</v>
+        <v>6502995</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6596875</v>
+        <v>6593321</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9020023270265655</v>
+        <v>0.9020023270265654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8958965115264169</v>
+        <v>0.8952897039430155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9082145486273245</v>
+        <v>0.9077252242932702</v>
       </c>
     </row>
     <row r="18">
